--- a/biology/Botanique/Nidularium_billbergioides/Nidularium_billbergioides.xlsx
+++ b/biology/Botanique/Nidularium_billbergioides/Nidularium_billbergioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nidularium billbergioides est une espèce de plantes à fleurs de la famille des Bromeliaceae, endémique du Brésil.
 </t>
@@ -511,21 +523,23 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aechmea billbergioides (Schult. &amp; Schult.f.) Baker[2] ;
-Canistropsis billbergioides (Schult. &amp; Schult.f.) Leme[2] ;
-Canistropsis billbergioides f. azurea (E.Pereira &amp; Leme) Leme[2] ;
-Hohenbergia billbergioides Schult. &amp; Schult.f.[2] ;
-Hohenbergia terminalis (Vell.) Beer[2] ;
-Nidularium billbergioides f. azureum E.Pereira &amp; Leme[2] ;
-Nidularium billbergioides var. citrinum (Burch. ex Baker) Reitz[2] ;
-Nidularium bracteatum Mez[2] ;
-Nidularium citrinum (Burch. ex Baker) Mez [Illegitimate][2] ;
-Nidularium parviflorum Lindm.[2] ;
-Tillandsia citrina Burch. ex Baker[2] ;
-Tillandsia terminalis Vell.[2].
+Aechmea billbergioides (Schult. &amp; Schult.f.) Baker ;
+Canistropsis billbergioides (Schult. &amp; Schult.f.) Leme ;
+Canistropsis billbergioides f. azurea (E.Pereira &amp; Leme) Leme ;
+Hohenbergia billbergioides Schult. &amp; Schult.f. ;
+Hohenbergia terminalis (Vell.) Beer ;
+Nidularium billbergioides f. azureum E.Pereira &amp; Leme ;
+Nidularium billbergioides var. citrinum (Burch. ex Baker) Reitz ;
+Nidularium bracteatum Mez ;
+Nidularium citrinum (Burch. ex Baker) Mez [Illegitimate] ;
+Nidularium parviflorum Lindm. ;
+Tillandsia citrina Burch. ex Baker ;
+Tillandsia terminalis Vell..
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique du Brésil et se rencontre dans les États côtiers, de celui de Bahia à celui de Santa Catarina[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique du Brésil et se rencontre dans les États côtiers, de celui de Bahia à celui de Santa Catarina.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte.
 </t>
         </is>
       </c>
